--- a/pslab/pslab.xlsx
+++ b/pslab/pslab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsal/Projects/sci7/pslab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD430E7-6182-C245-BB21-598E2A1440A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E08C7-7D30-4A4C-977D-2CDA62F1467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="500" windowWidth="19100" windowHeight="17500" activeTab="3" xr2:uid="{0D474A96-D2BB-EA4E-9ECF-C3E62CE09279}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="17500" activeTab="4" xr2:uid="{0D474A96-D2BB-EA4E-9ECF-C3E62CE09279}"/>
   </bookViews>
   <sheets>
     <sheet name="mccabe-thiele" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,28 @@
     <sheet name="Vapor Vivo" sheetId="4" r:id="rId4"/>
     <sheet name="732" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'732'!$AH$2:$AH$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'732'!$AI$2:$AI$30</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Vapor Vivo'!$AH$2:$AH$30</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Vapor Vivo'!$AI$2:$AI$30</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Vapor Vivo'!$J$3:$J$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Vapor Vivo'!$K$3:$K$20</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Vapor Vivo'!$M$20:$M$21</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Vapor Vivo'!$N$20:$N$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Vapor Vivo'!$Q$23:$Q$24</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Vapor Vivo'!$R$23:$R$24</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Vapor Vivo'!$U$10:$U$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Vapor Vivo'!$V$10:$V$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'732'!$J$3:$J$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'732'!$K$3:$K$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'732'!$M$20:$M$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'732'!$N$20:$N$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'732'!$Q$23:$Q$24</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'732'!$R$23:$R$24</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'732'!$U$10:$U$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'732'!$V$10:$V$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="69">
   <si>
     <t>Substancias</t>
   </si>
@@ -213,6 +235,39 @@
   <si>
     <t>Etapas Teoricas</t>
   </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Fracc</t>
+  </si>
+  <si>
+    <t>Teoricas</t>
+  </si>
+  <si>
+    <t>Alimentación Optima</t>
+  </si>
+  <si>
+    <t>Reflujo minimo</t>
+  </si>
+  <si>
+    <t>NOTA: no puede ir sobre el equilibrio</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>NOTA: si tiene duda de por que tantos decimales, la razon es que escribi un script en python para que calcule las etapas con respecto los puntos de equilibrio de manera automatica.</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -429,6 +484,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,33 +565,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4478,6 +4550,1656 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ELV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$J$3:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$K$3:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C2C-CF44-ABB9-8B0F0C6E3173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>45˚</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C2C-CF44-ABB9-8B0F0C6E3173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Enriquecimiento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$M$20:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$N$20:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21249999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C2C-CF44-ABB9-8B0F0C6E3173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Alimentación</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$Q$23:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$R$23:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C2C-CF44-ABB9-8B0F0C6E3173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Agotamiento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$U$10:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.6882453151618348E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$V$10:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0C2C-CF44-ABB9-8B0F0C6E3173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Pasos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$AH$2:$AH$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83652934397163126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83652934397163126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82335425419920416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82335425419920416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81046824551885832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81046824551885832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79786497506088705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79786497506088705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78553823912759202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78553823912759202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77348197013964182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77348197013964182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76169023364943256</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76169023364943256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75015722541997931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75015722541997931</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73667698748156751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73667698748156751</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72000694905424067</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72000694905424067</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69939231432463367</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69939231432463367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67354100560941732</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67354100560941732</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63679555622698891</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63679555622698891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58456500708183656</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.58456500708183656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49659725429544738</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49659725429544738</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33278910465992295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33278910465992295</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11693123814779419</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11693123814779419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11693123814779419</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9444404388781608E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9444404388781608E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2440289383407759E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2440289383407759E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.145262827735159E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$AI$2:$AI$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83989700797872346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83989700797872346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83001569064940317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83001569064940317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82035118413914376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82035118413914376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81089873129566536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81089873129566536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80165367934569398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80165367934569398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79261147760473138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79261147760473138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78376767523707447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78376767523707447</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77511791906498451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77511791906498451</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7650077406111756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7650077406111756</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75250521179068053</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75250521179068053</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73704423574347533</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73704423574347533</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71765575420706307</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71765575420706307</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69009666717024165</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.69009666717024165</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65092375531137747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65092375531137747</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58494794072158551</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58494794072158551</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46209182849494224</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46209182849494224</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46209182849494224</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.29561900191303297</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29561900191303297</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1113078523778589</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1113078523778589</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0247088458683003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0247088458683003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0C2C-CF44-ABB9-8B0F0C6E3173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1174321472"/>
+        <c:axId val="1174068784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1174321472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174068784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1174068784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174321472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ELV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$J$3:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$K$3:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAC8-F441-AD5B-77F596888BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>45˚</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAC8-F441-AD5B-77F596888BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Enriquecimiento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$M$63:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$N$63:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28360894941634229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAC8-F441-AD5B-77F596888BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Alimentación</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$Q$66:$Q$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$R$66:$R$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DAC8-F441-AD5B-77F596888BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Agotamiento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$U$53:$U$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.6882453151618348E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$V$53:$V$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DAC8-F441-AD5B-77F596888BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Pasos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'732'!$AH$45:$AH$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'732'!$AI$45:$AI$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DAC8-F441-AD5B-77F596888BBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1174321472"/>
+        <c:axId val="1174068784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1174321472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174068784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1174068784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174321472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4639,6 +6361,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6743,6 +8545,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12895,6 +15729,2882 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419A438B-40E3-2E4A-BCE9-E5D3D4E84378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2476500" y="1663700"/>
+          <a:ext cx="876300" cy="3136900"/>
+          <a:chOff x="3187700" y="1168400"/>
+          <a:chExt cx="914400" cy="3136900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA0C25F-F873-1949-B244-269C08140854}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3187700" y="1651000"/>
+            <a:ext cx="914400" cy="2222500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P = 101</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> kPa</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Oval 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC81ECE6-FFC1-6D4D-A33D-A1B0D533BA55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3187700" y="1168400"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Oval 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46F235E-431A-734B-A15F-5D197D48CB19}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3187700" y="3390900"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A89172-B67A-5941-9A82-FE5500D67E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="2476500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B96C87D-E806-C940-BCC0-D4FCD5C35B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3136900" y="1003300"/>
+          <a:ext cx="419100" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96178A3F-1C1A-8F43-BF1D-6BCAC49A85AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3797300" y="787400"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC490A00-A1E6-7044-8507-72A259A3E442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3784600" y="762000"/>
+          <a:ext cx="977900" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D8BF40-0907-A84E-96CD-62F4B79653B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="4"/>
+          <a:endCxn id="21" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3594100" y="1460500"/>
+          <a:ext cx="419100" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Elbow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E088476E-D290-3244-A78F-86243380D9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5638800" y="317500"/>
+          <a:ext cx="419100" cy="3187700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50798</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>868678</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E32040-A91B-9446-9F49-B293BF9B55AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9131298" y="215901"/>
+          <a:ext cx="2430780" cy="517317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>855980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD28777-C05E-5844-A5CB-FE1D764F845D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9118600" y="990600"/>
+          <a:ext cx="2443480" cy="505378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>766816</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46F1805-7BC1-3E48-B9B2-18C8F6E7BB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12433299" y="215900"/>
+          <a:ext cx="2367017" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>785702</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9714E13-3C36-294A-A433-25061232F330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12471400" y="990600"/>
+          <a:ext cx="2347802" cy="667512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>801128</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>343927</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9436C73C-734A-2B49-A279-949BD88DC213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4061392-B2A4-6840-95BE-3ACE2A7D776F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3111500" y="4724400"/>
+          <a:ext cx="0" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A117C6-CA32-4646-8127-99AE5EEB30DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="4686300"/>
+          <a:ext cx="0" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F369EA49-5EEB-544E-87F4-647D7567197F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5118100" y="520700"/>
+          <a:ext cx="1600200" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>192958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C17C12-79DB-584A-A98D-097AA8781D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="88900" y="3721100"/>
+          <a:ext cx="1473200" cy="332658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C92B63-0552-804F-9B5A-B6B3E762310F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4343400" y="3378200"/>
+          <a:ext cx="850900" cy="741106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70554A5B-7C87-8241-AD2B-0143B1C33FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5473700" y="3543299"/>
+          <a:ext cx="1016000" cy="330791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC79AE84-65F6-4E4A-8D99-EF42C963D712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="4203700"/>
+          <a:ext cx="1950356" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14647B6-368A-324B-A783-224B7BB44A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4483100" y="4521200"/>
+          <a:ext cx="1155700" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Group 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F532C642-7135-DB4E-B71E-B180EFA1E17F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2476500" y="10401300"/>
+          <a:ext cx="876300" cy="3136900"/>
+          <a:chOff x="3187700" y="1168400"/>
+          <a:chExt cx="914400" cy="3136900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Rectangle 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752494C9-BBB1-C648-B733-430ADE6B4D74}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3187700" y="1651000"/>
+            <a:ext cx="914400" cy="2222500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P = 101</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> kPa</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Oval 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D917272-D3E1-134E-ACF3-7F34FE314C88}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3187700" y="1168400"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Oval 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ECC739-F72E-C942-8CBF-F189FC17924A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3187700" y="3390900"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15002ED3-9B19-1349-BB05-4794F5471877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="3272064"/>
+          <a:ext cx="2458357" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Elbow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F987C78-B421-AF4C-A62F-36CBF47EE88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="0"/>
+          <a:endCxn id="49" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3104243" y="1014186"/>
+          <a:ext cx="420914" cy="892628"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Oval 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322172F5-C2C4-984E-8C39-44107D13DDE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3761014" y="790121"/>
+          <a:ext cx="905329" cy="918936"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD81965-1190-4441-AE3E-49C5F25A6061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3748314" y="764721"/>
+          <a:ext cx="968829" cy="944336"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Elbow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C261DF05-8208-1948-8A2D-95C7F39BF2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="4"/>
+          <a:endCxn id="45" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3552372" y="1473199"/>
+          <a:ext cx="420914" cy="892629"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Elbow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F02D3AD-A89B-E546-B44E-0D2E238EE65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5574393" y="343807"/>
+          <a:ext cx="420914" cy="3151414"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50798</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>868678</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897931F2-A381-6746-A0E3-F7B89DF2DDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9031512" y="216808"/>
+          <a:ext cx="2412637" cy="519131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>855980</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>73578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF47248-4663-F942-BC7D-F5880EB01AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9018814" y="994229"/>
+          <a:ext cx="2425337" cy="508099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>766816</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64706AA6-856C-BA48-ABB1-B64741E6B41F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12297228" y="216807"/>
+          <a:ext cx="2348874" cy="599622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>785702</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4EDB9D-7D51-BA41-AE1F-318EDD4EAD72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12335329" y="994229"/>
+          <a:ext cx="2329659" cy="671140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>26428</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>394727</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>98412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="57" name="Chart 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BDBB8D-C05C-F442-83DF-73EB1345B981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0828140C-263D-A649-8DE8-B9C6F416D292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3084286" y="4745264"/>
+          <a:ext cx="0" cy="1186543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEFE315-6B4B-FC4B-8F53-57DD2887176D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2614386" y="4707164"/>
+          <a:ext cx="0" cy="1237343"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC7C114-7A7E-264C-9AD1-F84750F79926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5063671" y="522514"/>
+          <a:ext cx="1582058" cy="178707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>192958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3916BFFF-C559-4E41-AFE6-2A44D62CE29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="88900" y="3737429"/>
+          <a:ext cx="1464129" cy="333565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>55306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7688ADC1-DDBC-B34A-8116-93D9308B95DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4298043" y="3392714"/>
+          <a:ext cx="841828" cy="744735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>13290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B308431-84FA-C34C-9994-E3B89AC35E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5419271" y="3558720"/>
+          <a:ext cx="1006929" cy="332606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E0BCF7-90D0-F74A-946B-0313DAB9BF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="4221843"/>
+          <a:ext cx="1932213" cy="319314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831E17EB-D6CC-3C4F-BDB9-2372F42BC312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4437743" y="4541157"/>
+          <a:ext cx="1146628" cy="178707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212C2D2F-BB9E-2C4A-AF99-4EF934B9228C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22377400" y="9207500"/>
+          <a:ext cx="1943100" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13206,39 +18916,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="41" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -13318,12 +19028,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -13678,12 +19388,12 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -13776,11 +19486,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -13789,12 +19499,12 @@
       <c r="K13" s="11">
         <v>0.65990000000000004</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="20" t="s">
         <v>33</v>
       </c>
@@ -13832,11 +19542,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -13884,11 +19594,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="10">
@@ -13928,11 +19638,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10">
@@ -13951,12 +19661,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -14525,12 +20235,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L13:O13"/>
@@ -14538,6 +20242,12 @@
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14555,39 +20265,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="41" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -14665,12 +20375,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -15025,10 +20735,10 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -15112,11 +20822,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -15125,12 +20835,12 @@
       <c r="K13" s="11">
         <v>0.98</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -15158,11 +20868,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -15206,11 +20916,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="10"/>
@@ -15246,11 +20956,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10"/>
@@ -15265,12 +20975,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -15766,39 +21476,39 @@
       <c r="AI29" s="32"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="41" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="49" t="s">
+      <c r="K31" s="52"/>
+      <c r="L31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52" t="s">
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="38" t="s">
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="40"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
       <c r="AG31" s="33"/>
       <c r="AH31" s="33" t="s">
         <v>20</v>
@@ -15869,12 +21579,12 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="58" t="s">
+      <c r="T33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="60"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="46"/>
       <c r="AG33" s="34" t="s">
         <v>40</v>
       </c>
@@ -16179,10 +21889,10 @@
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="43"/>
       <c r="T41" s="26" t="s">
         <v>25</v>
       </c>
@@ -16249,11 +21959,11 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
       <c r="J43" s="10">
@@ -16262,12 +21972,12 @@
       <c r="K43" s="11">
         <v>0.98</v>
       </c>
-      <c r="L43" s="43" t="s">
+      <c r="L43" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="55"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
@@ -16291,11 +22001,11 @@
         <v>9</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
       <c r="J44" s="10">
@@ -16332,11 +22042,11 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
       <c r="J45" s="10"/>
@@ -16368,11 +22078,11 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
       <c r="J46" s="10"/>
@@ -16387,12 +22097,12 @@
         <v>16</v>
       </c>
       <c r="O46" s="16"/>
-      <c r="P46" s="55" t="s">
+      <c r="P46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="57"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="43"/>
       <c r="T46" s="26"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27"/>
@@ -16880,21 +22590,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="P16:S16"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="P46:S46"/>
     <mergeCell ref="A31:I31"/>
@@ -16906,6 +22601,21 @@
     <mergeCell ref="L43:O43"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E45:G45"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16923,39 +22633,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="41" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -17039,12 +22749,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -17432,10 +23142,10 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -17523,11 +23233,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -17536,18 +23246,18 @@
       <c r="K13" s="11">
         <v>0.98</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="57"/>
+      <c r="S13" s="43"/>
       <c r="T13" s="26"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
@@ -17572,11 +23282,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -17616,17 +23326,17 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="37"/>
@@ -17664,11 +23374,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10"/>
@@ -17683,12 +23393,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -18238,6 +23948,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="E15:G15"/>
@@ -18247,12 +23963,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="P16:S16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18263,8 +23973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F1B701-7D7A-5D4C-9B0D-3F95BC4C312A}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18273,39 +23983,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="41" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="38" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -18391,12 +24101,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="60"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -18772,10 +24482,10 @@
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -18805,14 +24515,14 @@
       <c r="A12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="40">
         <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2">
@@ -18849,16 +24559,16 @@
       <c r="A13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="40">
         <v>0.4</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -18867,18 +24577,18 @@
       <c r="K13" s="11">
         <v>0.94630000000000003</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="57"/>
+      <c r="S13" s="43"/>
       <c r="T13" s="26"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
@@ -18898,11 +24608,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -18934,17 +24644,17 @@
       <c r="AI14" s="32"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="37">
@@ -18980,11 +24690,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10">
@@ -19003,12 +24713,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -19495,8 +25205,2986 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="E14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE69C94-AF8A-D24F-8A09-BC188032F6A8}">
+  <dimension ref="A1:AN85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O45" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AJ85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="39" max="39" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
+      <c r="Y1" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AG2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="67">
+        <v>0.85</v>
+      </c>
+      <c r="AI2" s="67">
+        <v>0.85</v>
+      </c>
+      <c r="AL2" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" s="72">
+        <f>F25</f>
+        <v>50.823529411764724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="AG3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="67">
+        <v>0.83652934397163126</v>
+      </c>
+      <c r="AI3" s="67">
+        <v>0.85</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="71">
+        <f>(AH41-U10) / (AH41 - AH42)</f>
+        <v>0.33218550215462472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="AG4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="67">
+        <v>0.83652934397163126</v>
+      </c>
+      <c r="AI4" s="67">
+        <v>0.83989700797872346</v>
+      </c>
+      <c r="AL4" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM4" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN4" s="72">
+        <f xml:space="preserve"> 20 + AN3</f>
+        <v>20.332185502154626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="10">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.3891</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="28"/>
+      <c r="AG5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="67">
+        <v>0.82335425419920416</v>
+      </c>
+      <c r="AI5" s="67">
+        <v>0.83989700797872346</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM5" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN5" s="71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="10">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="28"/>
+      <c r="AG6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="67">
+        <v>0.82335425419920416</v>
+      </c>
+      <c r="AI6" s="67">
+        <v>0.83001569064940317</v>
+      </c>
+      <c r="AL6" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN6" s="72">
+        <f>M55</f>
+        <v>1.9970845481049575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="10">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="28"/>
+      <c r="AG7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="67">
+        <v>0.81046824551885832</v>
+      </c>
+      <c r="AI7" s="67">
+        <v>0.83001569064940317</v>
+      </c>
+      <c r="AJ7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <f>0.9 * B13 * B12 / H9</f>
+        <v>12.705882352941178</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.1661</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+      <c r="AG8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" s="67">
+        <v>0.81046824551885832</v>
+      </c>
+      <c r="AI8" s="67">
+        <v>0.82035118413914376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="10">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="28"/>
+      <c r="AG9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="67">
+        <v>0.79786497506088705</v>
+      </c>
+      <c r="AI9" s="67">
+        <v>0.82035118413914376</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="10">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="15">
+        <f>F12 / (F12 + 1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="27">
+        <f>B26</f>
+        <v>8.6882453151618348E-3</v>
+      </c>
+      <c r="V10" s="27">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28"/>
+      <c r="AG10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH10" s="67">
+        <v>0.79786497506088705</v>
+      </c>
+      <c r="AI10" s="67">
+        <v>0.81089873129566536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="10">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="15">
+        <f>H9 / (F12 + 1)</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="27">
+        <f>Q24</f>
+        <v>0.12</v>
+      </c>
+      <c r="V11" s="27">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="W11" s="28"/>
+      <c r="AG11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH11" s="67">
+        <v>0.78553823912759202</v>
+      </c>
+      <c r="AI11" s="67">
+        <v>0.81089873129566536</v>
+      </c>
+      <c r="AJ11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="40">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="10">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="28"/>
+      <c r="AG12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" s="67">
+        <v>0.78553823912759202</v>
+      </c>
+      <c r="AI12" s="67">
+        <v>0.80165367934569398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="10">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="43"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
+      <c r="AG13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="67">
+        <v>0.77348197013964182</v>
+      </c>
+      <c r="AI13" s="67">
+        <v>0.80165367934569398</v>
+      </c>
+      <c r="AJ13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="10">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="22">
+        <v>1</v>
+      </c>
+      <c r="T14" s="26"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="AG14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="67">
+        <v>0.77348197013964182</v>
+      </c>
+      <c r="AI14" s="67">
+        <v>0.79261147760473138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="37">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="28"/>
+      <c r="AG15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="67">
+        <v>0.76169023364943256</v>
+      </c>
+      <c r="AI15" s="67">
+        <v>0.79261147760473138</v>
+      </c>
+      <c r="AJ15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="10">
+        <v>0.67630000000000001</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="28"/>
+      <c r="AG16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="67">
+        <v>0.76169023364943256</v>
+      </c>
+      <c r="AI16" s="67">
+        <v>0.78376767523707447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="10">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="AG17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH17" s="67">
+        <v>0.75015722541997931</v>
+      </c>
+      <c r="AI17" s="67">
+        <v>0.78376767523707447</v>
+      </c>
+      <c r="AJ17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="10">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="22"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="28"/>
+      <c r="AG18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="67">
+        <v>0.75015722541997931</v>
+      </c>
+      <c r="AI18" s="67">
+        <v>0.77511791906498451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="22"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="28"/>
+      <c r="AG19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="67">
+        <v>0.73667698748156751</v>
+      </c>
+      <c r="AI19" s="67">
+        <v>0.77511791906498451</v>
+      </c>
+      <c r="AJ19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="15">
+        <f>H9</f>
+        <v>0.85</v>
+      </c>
+      <c r="N20" s="15">
+        <f>H9</f>
+        <v>0.85</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="22"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="28"/>
+      <c r="AG20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" s="67">
+        <v>0.73667698748156751</v>
+      </c>
+      <c r="AI20" s="67">
+        <v>0.7650077406111756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <f>M21 * M10 + M11</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="AG21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH21" s="67">
+        <v>0.72000694905424067</v>
+      </c>
+      <c r="AI21" s="67">
+        <v>0.7650077406111756</v>
+      </c>
+      <c r="AJ21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="2">
+        <f>H8 * F12</f>
+        <v>38.117647058823536</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="22"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="AG22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH22" s="67">
+        <v>0.72000694905424067</v>
+      </c>
+      <c r="AI22" s="67">
+        <v>0.75250521179068053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="21">
+        <f>B13</f>
+        <v>0.12</v>
+      </c>
+      <c r="R23" s="21">
+        <f>B13</f>
+        <v>0.12</v>
+      </c>
+      <c r="S23" s="22"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="AG23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH23" s="67">
+        <v>0.69939231432463367</v>
+      </c>
+      <c r="AI23" s="67">
+        <v>0.75250521179068053</v>
+      </c>
+      <c r="AJ23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="21">
+        <f>Q23</f>
+        <v>0.12</v>
+      </c>
+      <c r="R24" s="21">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="S24" s="22"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28"/>
+      <c r="AG24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH24" s="67">
+        <v>0.69939231432463367</v>
+      </c>
+      <c r="AI24" s="67">
+        <v>0.73704423574347533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <f>G22 + B12</f>
+        <v>138.11764705882354</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="2">
+        <f>B25 + H8 - B12</f>
+        <v>50.823529411764724</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="28"/>
+      <c r="AG25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH25" s="67">
+        <v>0.67354100560941732</v>
+      </c>
+      <c r="AI25" s="67">
+        <v>0.73704423574347533</v>
+      </c>
+      <c r="AJ25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <f>(B13 * B12 - H9 * H8) / B25</f>
+        <v>8.6882453151618348E-3</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="28"/>
+      <c r="AG26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH26" s="67">
+        <v>0.67354100560941732</v>
+      </c>
+      <c r="AI26" s="67">
+        <v>0.71765575420706307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="28"/>
+      <c r="AG27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH27" s="67">
+        <v>0.63679555622698891</v>
+      </c>
+      <c r="AI27" s="67">
+        <v>0.71765575420706307</v>
+      </c>
+      <c r="AJ27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="28"/>
+      <c r="AG28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" s="67">
+        <v>0.63679555622698891</v>
+      </c>
+      <c r="AI28" s="67">
+        <v>0.69009666717024165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="31"/>
+      <c r="AG29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH29" s="67">
+        <v>0.58456500708183656</v>
+      </c>
+      <c r="AI29" s="67">
+        <v>0.69009666717024165</v>
+      </c>
+      <c r="AJ29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH30" s="67">
+        <v>0.58456500708183656</v>
+      </c>
+      <c r="AI30" s="67">
+        <v>0.65092375531137747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="67">
+        <v>0.49659725429544738</v>
+      </c>
+      <c r="AI31" s="67">
+        <v>0.65092375531137747</v>
+      </c>
+      <c r="AJ31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH32" s="67">
+        <v>0.49659725429544738</v>
+      </c>
+      <c r="AI32" s="67">
+        <v>0.58494794072158551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH33" s="67">
+        <v>0.33278910465992295</v>
+      </c>
+      <c r="AI33" s="67">
+        <v>0.58494794072158551</v>
+      </c>
+      <c r="AJ33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH34" s="67">
+        <v>0.33278910465992295</v>
+      </c>
+      <c r="AI34" s="67">
+        <v>0.46209182849494224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH35" s="67">
+        <v>0.11693123814779419</v>
+      </c>
+      <c r="AI35" s="67">
+        <v>0.46209182849494224</v>
+      </c>
+      <c r="AJ35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH36" s="67">
+        <v>0.11693123814779419</v>
+      </c>
+      <c r="AI36" s="67">
+        <v>0.46209182849494224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH37" s="67">
+        <v>0.11693123814779419</v>
+      </c>
+      <c r="AI37" s="67">
+        <v>0.29561900191303297</v>
+      </c>
+      <c r="AJ37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG38" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH38" s="67">
+        <v>4.9444404388781608E-2</v>
+      </c>
+      <c r="AI38" s="67">
+        <v>0.29561900191303297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG39" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH39" s="67">
+        <v>4.9444404388781608E-2</v>
+      </c>
+      <c r="AI39" s="67">
+        <v>0.1113078523778589</v>
+      </c>
+      <c r="AJ39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG40" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH40" s="67">
+        <v>1.2440289383407759E-2</v>
+      </c>
+      <c r="AI40" s="67">
+        <v>0.1113078523778589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG41" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH41" s="67">
+        <v>1.2440289383407759E-2</v>
+      </c>
+      <c r="AI41" s="67">
+        <v>1.0247088458683003E-2</v>
+      </c>
+      <c r="AJ41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG42" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH42" s="67">
+        <v>1.145262827735159E-3</v>
+      </c>
+      <c r="AI42" s="67">
+        <v>1.0247088458683003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A43" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="52"/>
+      <c r="L44" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="50"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI44" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="28"/>
+      <c r="Y45" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AG45" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH45" s="67"/>
+      <c r="AI45" s="67"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="37">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="46"/>
+      <c r="AG46" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH46" s="67"/>
+      <c r="AI46" s="67"/>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="28"/>
+      <c r="AC47" s="69"/>
+      <c r="AD47" s="69"/>
+      <c r="AE47" s="69"/>
+      <c r="AG47" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH47" s="67"/>
+      <c r="AI47" s="67"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="10">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.3891</v>
+      </c>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="28"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="69"/>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="69"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="69"/>
+      <c r="AG48" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="10">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="V49" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W49" s="28"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="69"/>
+      <c r="AA49" s="69"/>
+      <c r="AB49" s="69"/>
+      <c r="AC49" s="69"/>
+      <c r="AD49" s="69"/>
+      <c r="AE49" s="69"/>
+      <c r="AG49" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="10">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" s="28"/>
+      <c r="Y50" s="69"/>
+      <c r="Z50" s="69"/>
+      <c r="AA50" s="69"/>
+      <c r="AB50" s="69"/>
+      <c r="AC50" s="69"/>
+      <c r="AD50" s="69"/>
+      <c r="AE50" s="69"/>
+      <c r="AG50" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH50" s="67"/>
+      <c r="AI50" s="67"/>
+      <c r="AJ50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2">
+        <f>0.9 * B56 * B55 / H52</f>
+        <v>12.705882352941178</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0.1661</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="28"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="69"/>
+      <c r="AD51" s="69"/>
+      <c r="AE51" s="69"/>
+      <c r="AG51" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH51" s="67"/>
+      <c r="AI51" s="67"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="10">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="28"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="69"/>
+      <c r="AG52" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH52" s="67"/>
+      <c r="AI52" s="67"/>
+      <c r="AJ52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="10">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="15">
+        <f>(K60 - N63) / (J60 - M63)</f>
+        <v>0.66634241245136194</v>
+      </c>
+      <c r="N53" s="15"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" s="27">
+        <f>B69</f>
+        <v>8.6882453151618348E-3</v>
+      </c>
+      <c r="V53" s="27">
+        <v>0</v>
+      </c>
+      <c r="W53" s="28"/>
+      <c r="AG53" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="67"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="10">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="15">
+        <f>N63 - M53 * M63</f>
+        <v>0.28360894941634229</v>
+      </c>
+      <c r="N54" s="15"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="27">
+        <f>Q67</f>
+        <v>0.12</v>
+      </c>
+      <c r="V54" s="27">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="W54" s="28"/>
+      <c r="AG54" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH54" s="67"/>
+      <c r="AI54" s="67"/>
+      <c r="AJ54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A55" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="40">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="10">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="15">
+        <f>H52/M54 - 1</f>
+        <v>1.9970845481049575</v>
+      </c>
+      <c r="N55" s="15"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="28"/>
+      <c r="AG55" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH55" s="67"/>
+      <c r="AI55" s="67"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="10">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="S56" s="43"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="28"/>
+      <c r="AG56" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="10">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="L57" s="14"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57" s="22">
+        <v>1</v>
+      </c>
+      <c r="T57" s="26"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="28"/>
+      <c r="AG57" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="37">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="K58" s="37">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="16"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="28"/>
+      <c r="AG58" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH58" s="67"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="10">
+        <v>0.67630000000000001</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="16"/>
+      <c r="P59" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="28"/>
+      <c r="AG59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="67"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="10">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="15">
+        <v>0</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="28"/>
+      <c r="AG60" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH60" s="67"/>
+      <c r="AI60" s="67"/>
+      <c r="AJ60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="10">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="22"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="28"/>
+      <c r="AG61" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH61" s="67"/>
+      <c r="AI61" s="67"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="10">
+        <v>1</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1</v>
+      </c>
+      <c r="L62" s="14"/>
+      <c r="M62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R62" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S62" s="22"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="28"/>
+      <c r="AG62" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH62" s="67"/>
+      <c r="AI62" s="67"/>
+      <c r="AJ62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="15">
+        <f>H52</f>
+        <v>0.85</v>
+      </c>
+      <c r="N63" s="15">
+        <f>H52</f>
+        <v>0.85</v>
+      </c>
+      <c r="O63" s="16"/>
+      <c r="P63" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="22"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="28"/>
+      <c r="AG63" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH63" s="67"/>
+      <c r="AI63" s="67"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="15">
+        <v>0</v>
+      </c>
+      <c r="N64" s="15">
+        <f>M64 * M53 + M54</f>
+        <v>0.28360894941634229</v>
+      </c>
+      <c r="O64" s="16"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="28"/>
+      <c r="AG64" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH64" s="67"/>
+      <c r="AI64" s="67"/>
+      <c r="AJ64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A65" s="66"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="2">
+        <f>H51 * F55</f>
+        <v>38.117647058823536</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="22"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="28"/>
+      <c r="AG65" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH65" s="67"/>
+      <c r="AI65" s="67"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="21">
+        <f>B56</f>
+        <v>0.12</v>
+      </c>
+      <c r="R66" s="21">
+        <f>B56</f>
+        <v>0.12</v>
+      </c>
+      <c r="S66" s="22"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="28"/>
+      <c r="AG66" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH66" s="67"/>
+      <c r="AI66" s="67"/>
+      <c r="AJ66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="21">
+        <f>Q66</f>
+        <v>0.12</v>
+      </c>
+      <c r="R67" s="21">
+        <f>V54</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="S67" s="22"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="28"/>
+      <c r="AG67" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2">
+        <f>G65 + B55</f>
+        <v>138.11764705882354</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="2">
+        <f>B68 + H51 - B55</f>
+        <v>50.823529411764724</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="28"/>
+      <c r="AG68" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="2">
+        <f>(B56 * B55 - H52 * H51) / B68</f>
+        <v>8.6882453151618348E-3</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="28"/>
+      <c r="AG69" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="67"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="28"/>
+      <c r="AG70" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
+      <c r="AJ70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+      <c r="AG71" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH71" s="67"/>
+      <c r="AI71" s="67"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="31"/>
+      <c r="AG72" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="67"/>
+      <c r="AJ72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG73" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH73" s="67"/>
+      <c r="AI73" s="67"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG74" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH74" s="67"/>
+      <c r="AI74" s="67"/>
+      <c r="AJ74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG75" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH75" s="67"/>
+      <c r="AI75" s="67"/>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG76" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH76" s="67"/>
+      <c r="AI76" s="67"/>
+      <c r="AJ76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG77" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH77" s="67"/>
+      <c r="AI77" s="67"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG78" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH78" s="67"/>
+      <c r="AI78" s="67"/>
+      <c r="AJ78">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG79" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH79" s="67"/>
+      <c r="AI79" s="67"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG80" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH80" s="67"/>
+      <c r="AI80" s="67"/>
+      <c r="AJ80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="33:36" x14ac:dyDescent="0.2">
+      <c r="AG81" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH81" s="67"/>
+      <c r="AI81" s="67"/>
+    </row>
+    <row r="82" spans="33:36" x14ac:dyDescent="0.2">
+      <c r="AG82" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH82" s="67"/>
+      <c r="AI82" s="67"/>
+      <c r="AJ82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="33:36" x14ac:dyDescent="0.2">
+      <c r="AG83" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH83" s="67"/>
+      <c r="AI83" s="67"/>
+    </row>
+    <row r="84" spans="33:36" x14ac:dyDescent="0.2">
+      <c r="AG84" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH84" s="67"/>
+      <c r="AI84" s="67"/>
+      <c r="AJ84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="33:36" x14ac:dyDescent="0.2">
+      <c r="AG85" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH85" s="67"/>
+      <c r="AI85" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="Y1:AE2"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="A43:AJ43"/>
+    <mergeCell ref="Y45:AE45"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="L13:O13"/>
@@ -19514,16 +28202,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE69C94-AF8A-D24F-8A09-BC188032F6A8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>